--- a/data/DMSP_dosage.xlsx
+++ b/data/DMSP_dosage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtalmy/Documents/code/metro_hastings/algicide/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtalmy/Documents/code/metro_hastings/growth_curves/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491E83D0-5D9B-BA44-9657-DDAE2DD75456}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF36AD9-3544-2546-BA25-44ECDBBBEFDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="3220" windowWidth="28800" windowHeight="15940" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="1900" windowWidth="28800" windowHeight="15940" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="379-D7 dynamics, Exp 1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="doses_forpy" sheetId="7" r:id="rId6"/>
     <sheet name="substrates" sheetId="6" r:id="rId7"/>
     <sheet name="substrate_forpy" sheetId="8" r:id="rId8"/>
+    <sheet name="vir_forpy" sheetId="9" r:id="rId9"/>
+    <sheet name="bac_forpy" sheetId="12" r:id="rId10"/>
+    <sheet name="onehost_forpy" sheetId="10" r:id="rId11"/>
+    <sheet name="twohost_forpy" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="166">
   <si>
     <t>Algal denseties (average)</t>
   </si>
@@ -393,12 +397,150 @@
   <si>
     <t>B_379_D7_500_sd</t>
   </si>
+  <si>
+    <t>A_2090_V</t>
+  </si>
+  <si>
+    <t>A_2090_V_sd</t>
+  </si>
+  <si>
+    <t>A_2090_D7_V</t>
+  </si>
+  <si>
+    <t>A_2090_D7_V_sd</t>
+  </si>
+  <si>
+    <t>B_A_2090_D7_V_sd</t>
+  </si>
+  <si>
+    <t>A_379_D7_V</t>
+  </si>
+  <si>
+    <t>A_379_D7_V_sd</t>
+  </si>
+  <si>
+    <t>B_A_2090_D7_V</t>
+  </si>
+  <si>
+    <t>V_A_2090_D7_V</t>
+  </si>
+  <si>
+    <t>B_A_379_D7_V</t>
+  </si>
+  <si>
+    <t>V_A_379_D7_V</t>
+  </si>
+  <si>
+    <t>B_A_379_D7_V_sd</t>
+  </si>
+  <si>
+    <t>A_2090_A_379</t>
+  </si>
+  <si>
+    <t>A_2090_A_379_D7</t>
+  </si>
+  <si>
+    <t>A_2090_A_379_D7_V</t>
+  </si>
+  <si>
+    <t>B_A_2090_A_379</t>
+  </si>
+  <si>
+    <t>B_A_2090_A_379_D7</t>
+  </si>
+  <si>
+    <t>B_A_2090_A_379_V</t>
+  </si>
+  <si>
+    <t>V_A_2090_A_379</t>
+  </si>
+  <si>
+    <t>V_A_2090_A_379_D7</t>
+  </si>
+  <si>
+    <t>V_A_2090_A_379_V</t>
+  </si>
+  <si>
+    <t>V_A_2090_A_379_D7_V</t>
+  </si>
+  <si>
+    <t>A_2090_A_379_sd</t>
+  </si>
+  <si>
+    <t>A_2090_A_379_D7_sd</t>
+  </si>
+  <si>
+    <t>A_2090_A_379_V</t>
+  </si>
+  <si>
+    <t>A_2090_A_379_V_sd</t>
+  </si>
+  <si>
+    <t>A_2090_A_379_D7_V_sd</t>
+  </si>
+  <si>
+    <t>B_A_2090_A_379_sd</t>
+  </si>
+  <si>
+    <t>B_A_2090_A_379_D7_sd</t>
+  </si>
+  <si>
+    <t>B_A_2090_A_379_V_sd</t>
+  </si>
+  <si>
+    <t>V_A_2090_A_379_sd</t>
+  </si>
+  <si>
+    <t>V_A_2090_A_379_D7_sd</t>
+  </si>
+  <si>
+    <t>V_A_2090_A_379_V_sd</t>
+  </si>
+  <si>
+    <t>V_A_2090_A_379_D7_V_sd</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B_A_2090_D7</t>
+  </si>
+  <si>
+    <t>B_A_379_D7</t>
+  </si>
+  <si>
+    <t>B_A_2090_A_379_D7_V</t>
+  </si>
+  <si>
+    <t>V_A_2090_V</t>
+  </si>
+  <si>
+    <t>V_A_2090_V_sd</t>
+  </si>
+  <si>
+    <t>V_A_2090_D7_V_sd</t>
+  </si>
+  <si>
+    <t>B_sd</t>
+  </si>
+  <si>
+    <t>B_A_2090_D7_sd</t>
+  </si>
+  <si>
+    <t>B_A_379_D7_sd</t>
+  </si>
+  <si>
+    <t>B_A_2090_A_379_D7_V_sd</t>
+  </si>
+  <si>
+    <t>V_A_379_D7_V_sd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +615,1790 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'379-D7 dynamics+DMSP, Exp 4'!$F$39:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'379-D7 dynamics+DMSP, Exp 4'!$G$39:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>63843.128703601782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11335.230062877275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63271.407903167325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71289.883266253557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27151.039427968855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22737.192792122361</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38761.732338034781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101450.01737378314</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>189114.95299156208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129406.30769722942</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149225.36234255586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>174971.05100679194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DCD-6149-A1F1-96B6F374985E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1715599599"/>
+        <c:axId val="1715705471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1715599599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1715705471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1715705471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1715599599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'379-D7 dynamics+DMSP, Exp 4'!$J$39:$J$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.8051141619487971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0544303391095706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8012074984037305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8530279035772983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4337864604143773</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3567368442502152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5884031782868071</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0062521257443029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2767258691146424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1119554458174994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1738426421000261</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2429662005262854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00F1-044B-AFDF-64DABD7E268E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1719177407"/>
+        <c:axId val="1634413999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1719177407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1634413999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1634413999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1719177407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1031,6 +2957,78 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209176</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>74706</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>153894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D4BADD-F82B-C24D-9606-5E5FD19EA7AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>119529</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>64247</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863C98D1-CD42-DC47-B239-42BC67242DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1596,17 +3594,17 @@
       <selection activeCell="A22" sqref="A22:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +3612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1634,7 +3632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1654,7 +3652,7 @@
         <v>14906.887395133537</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1674,7 +3672,7 @@
         <v>51613.717854080176</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1694,7 +3692,7 @@
         <v>95549.913368879337</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1714,7 +3712,7 @@
         <v>91904.519232952327</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1734,7 +3732,7 @@
         <v>76568.41123568594</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1754,7 +3752,7 @@
         <v>125742.92945384118</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1774,7 +3772,7 @@
         <v>85289.894160807846</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1794,7 +3792,7 @@
         <v>80712.784492146558</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1814,7 +3812,7 @@
         <v>207453.40111818301</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1834,7 +3832,7 @@
         <v>73865.341786720906</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1854,7 +3852,7 @@
         <v>147334.16793275881</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1874,7 +3872,7 @@
         <v>123996.62997169545</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1894,7 +3892,7 @@
         <v>101226.94910456197</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1914,7 +3912,7 @@
         <v>69756.030999629817</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1934,7 +3932,7 @@
         <v>50188.657572708886</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1942,7 +3940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1962,7 +3960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1982,7 +3980,7 @@
         <v>0.30430116706218729</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2002,7 +4000,7 @@
         <v>0.12677060739015594</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2022,7 +4020,7 @@
         <v>0.24818858023169396</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -2042,7 +4040,7 @@
         <v>0.19038259892721557</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -2062,7 +4060,7 @@
         <v>0.66814690535683252</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8</v>
       </c>
@@ -2082,7 +4080,7 @@
         <v>0.61143812933262809</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2102,7 +4100,7 @@
         <v>0.37431846444949968</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10</v>
       </c>
@@ -2122,7 +4120,7 @@
         <v>1.2436755738805942</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>11</v>
       </c>
@@ -2142,7 +4140,7 @@
         <v>0.5833080269990667</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>12</v>
       </c>
@@ -2162,7 +4160,7 @@
         <v>1.7504234227818802</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>13</v>
       </c>
@@ -2182,7 +4180,7 @@
         <v>2.6654903514031272</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>14</v>
       </c>
@@ -2202,7 +4200,7 @@
         <v>1.496263216887596</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>15</v>
       </c>
@@ -2222,7 +4220,7 @@
         <v>1.027482908737209</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>16</v>
       </c>
@@ -2242,7 +4240,7 @@
         <v>0.99718508278865814</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>17</v>
       </c>
@@ -2262,7 +4260,7 @@
         <v>0.97287615448110631</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16" thickBot="1">
+    <row r="41" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -2270,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2291,7 +4289,7 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -2312,7 +4310,7 @@
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -2333,7 +4331,7 @@
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>4</v>
       </c>
@@ -2354,7 +4352,7 @@
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>5</v>
       </c>
@@ -2375,7 +4373,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>7</v>
       </c>
@@ -2396,7 +4394,7 @@
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>8</v>
       </c>
@@ -2417,7 +4415,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>9</v>
       </c>
@@ -2438,7 +4436,7 @@
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>10</v>
       </c>
@@ -2459,7 +4457,7 @@
       </c>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>11</v>
       </c>
@@ -2480,7 +4478,7 @@
       </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>12</v>
       </c>
@@ -2501,7 +4499,7 @@
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>13</v>
       </c>
@@ -2522,7 +4520,7 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>14</v>
       </c>
@@ -2543,7 +4541,7 @@
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>15</v>
       </c>
@@ -2564,7 +4562,7 @@
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>16</v>
       </c>
@@ -2585,7 +4583,7 @@
       </c>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>17</v>
       </c>
@@ -2606,7 +4604,7 @@
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2615,6 +4613,2110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B7C8CD-FA64-D849-90E0-5FBF6316FEC2}">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>762508.86891729571</v>
+      </c>
+      <c r="C2" s="8">
+        <v>755672.61477375904</v>
+      </c>
+      <c r="D2" s="8">
+        <v>34035.020559002376</v>
+      </c>
+      <c r="E2">
+        <v>33680.785219146819</v>
+      </c>
+      <c r="F2">
+        <v>153418.13134119674</v>
+      </c>
+      <c r="G2">
+        <v>348379.37180232868</v>
+      </c>
+      <c r="H2">
+        <v>38951.611203709967</v>
+      </c>
+      <c r="I2">
+        <v>260784.92905598105</v>
+      </c>
+      <c r="J2">
+        <v>705635.20841232699</v>
+      </c>
+      <c r="K2">
+        <v>704299.60805211868</v>
+      </c>
+      <c r="L2">
+        <v>49556.641454603152</v>
+      </c>
+      <c r="M2">
+        <v>64696.38118939392</v>
+      </c>
+      <c r="N2" s="3">
+        <v>233855.49584150672</v>
+      </c>
+      <c r="O2" s="3">
+        <v>535106.20575465565</v>
+      </c>
+      <c r="P2" s="3">
+        <v>128466.66777984782</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>37720.008488179155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2180562.4969209922</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2221246.7746770801</v>
+      </c>
+      <c r="D3" s="8">
+        <v>70317.29300821104</v>
+      </c>
+      <c r="E3">
+        <v>79629.791125517702</v>
+      </c>
+      <c r="F3">
+        <v>99735.303473065884</v>
+      </c>
+      <c r="G3">
+        <v>1741673.7510267983</v>
+      </c>
+      <c r="H3">
+        <v>22650.851622300452</v>
+      </c>
+      <c r="I3">
+        <v>154110.50315654976</v>
+      </c>
+      <c r="J3">
+        <v>922740.55561383732</v>
+      </c>
+      <c r="K3">
+        <v>926336.90408338245</v>
+      </c>
+      <c r="L3">
+        <v>41181.628871784807</v>
+      </c>
+      <c r="M3">
+        <v>28364.887322129307</v>
+      </c>
+      <c r="N3">
+        <v>244264.81734245425</v>
+      </c>
+      <c r="O3">
+        <v>3224122.04878412</v>
+      </c>
+      <c r="P3">
+        <v>85165.193605085558</v>
+      </c>
+      <c r="Q3">
+        <v>129342.59668024909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4361741.4230567012</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4207116.3550864933</v>
+      </c>
+      <c r="D4" s="8">
+        <v>103929.06031437915</v>
+      </c>
+      <c r="E4">
+        <v>105249.62821533042</v>
+      </c>
+      <c r="F4">
+        <v>132398.24709292108</v>
+      </c>
+      <c r="G4">
+        <v>4259699.6486789249</v>
+      </c>
+      <c r="H4">
+        <v>51499.892682000165</v>
+      </c>
+      <c r="I4">
+        <v>53313.76661296597</v>
+      </c>
+      <c r="J4">
+        <v>1838726.4029751951</v>
+      </c>
+      <c r="K4">
+        <v>1834147.1191798977</v>
+      </c>
+      <c r="L4">
+        <v>130777.32348152623</v>
+      </c>
+      <c r="M4">
+        <v>67198.331125840399</v>
+      </c>
+      <c r="N4">
+        <v>248317.2634128741</v>
+      </c>
+      <c r="O4">
+        <v>9254828.6764435433</v>
+      </c>
+      <c r="P4">
+        <v>98101.859917555339</v>
+      </c>
+      <c r="Q4">
+        <v>870749.56137419969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7097172.598679509</v>
+      </c>
+      <c r="C5" s="8">
+        <v>6647595.7832443453</v>
+      </c>
+      <c r="D5" s="8">
+        <v>121368.05177053963</v>
+      </c>
+      <c r="E5">
+        <v>193517.37848602684</v>
+      </c>
+      <c r="F5">
+        <v>93938.567196257762</v>
+      </c>
+      <c r="G5">
+        <v>4770784.4486942878</v>
+      </c>
+      <c r="H5">
+        <v>11318.082433199672</v>
+      </c>
+      <c r="I5">
+        <v>276230.96835620538</v>
+      </c>
+      <c r="J5">
+        <v>2712448.1001369371</v>
+      </c>
+      <c r="K5">
+        <v>2928320.9912134707</v>
+      </c>
+      <c r="L5">
+        <v>129584.25716834406</v>
+      </c>
+      <c r="M5">
+        <v>77809.791760880122</v>
+      </c>
+      <c r="N5">
+        <v>575039.79307658307</v>
+      </c>
+      <c r="O5">
+        <v>10930060.69961221</v>
+      </c>
+      <c r="P5">
+        <v>166893.15225785587</v>
+      </c>
+      <c r="Q5">
+        <v>788527.61372097803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>9037235.9701416772</v>
+      </c>
+      <c r="C6" s="8">
+        <v>8525766.517249383</v>
+      </c>
+      <c r="D6" s="8">
+        <v>227146.56833205247</v>
+      </c>
+      <c r="E6">
+        <v>294962.1520871364</v>
+      </c>
+      <c r="F6">
+        <v>135612.90333169882</v>
+      </c>
+      <c r="G6">
+        <v>6087404.1231320994</v>
+      </c>
+      <c r="H6">
+        <v>50052.604617784731</v>
+      </c>
+      <c r="I6">
+        <v>314804.54822952137</v>
+      </c>
+      <c r="J6">
+        <v>3848877.2066742214</v>
+      </c>
+      <c r="K6">
+        <v>4087105.8828745694</v>
+      </c>
+      <c r="L6">
+        <v>47325.519069301496</v>
+      </c>
+      <c r="M6">
+        <v>55327.333902703554</v>
+      </c>
+      <c r="N6">
+        <v>184961.97612045577</v>
+      </c>
+      <c r="O6">
+        <v>10536101.081721654</v>
+      </c>
+      <c r="P6">
+        <v>49846.912347403042</v>
+      </c>
+      <c r="Q6">
+        <v>2270494.3356642686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>10988682.015352204</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10447455.022780115</v>
+      </c>
+      <c r="D7" s="8">
+        <v>218939.19163615195</v>
+      </c>
+      <c r="E7">
+        <v>273842.0776113235</v>
+      </c>
+      <c r="F7">
+        <v>177949.36439018798</v>
+      </c>
+      <c r="G7">
+        <v>5137334.8653913066</v>
+      </c>
+      <c r="H7">
+        <v>13166.858069827547</v>
+      </c>
+      <c r="I7">
+        <v>818093.38238069334</v>
+      </c>
+      <c r="J7">
+        <v>5268716.9324291125</v>
+      </c>
+      <c r="K7">
+        <v>5635375.9359325888</v>
+      </c>
+      <c r="L7">
+        <v>212946.96657439409</v>
+      </c>
+      <c r="M7">
+        <v>114941.65956834967</v>
+      </c>
+      <c r="N7">
+        <v>484122.46204831061</v>
+      </c>
+      <c r="O7">
+        <v>22261199.852974776</v>
+      </c>
+      <c r="P7">
+        <v>158116.98944930881</v>
+      </c>
+      <c r="Q7">
+        <v>3586875.6837045755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>11965407.526725782</v>
+      </c>
+      <c r="C8" s="8">
+        <v>11347596.742597396</v>
+      </c>
+      <c r="D8" s="8">
+        <v>396820.23255747964</v>
+      </c>
+      <c r="E8">
+        <v>127921.33565822136</v>
+      </c>
+      <c r="F8">
+        <v>457945.43216162454</v>
+      </c>
+      <c r="G8">
+        <v>9320950.6499096528</v>
+      </c>
+      <c r="H8">
+        <v>130358.39641975093</v>
+      </c>
+      <c r="I8">
+        <v>1876227.5552134898</v>
+      </c>
+      <c r="J8">
+        <v>4534292.3590469835</v>
+      </c>
+      <c r="K8">
+        <v>3300426.8270378676</v>
+      </c>
+      <c r="L8">
+        <v>225372.06975808943</v>
+      </c>
+      <c r="M8">
+        <v>260868.85349137508</v>
+      </c>
+      <c r="N8">
+        <v>2001249.8559240338</v>
+      </c>
+      <c r="O8">
+        <v>55214423.996239759</v>
+      </c>
+      <c r="P8">
+        <v>575483.48231084249</v>
+      </c>
+      <c r="Q8">
+        <v>1996377.3167401664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <v>12702094.971556066</v>
+      </c>
+      <c r="C9" s="8">
+        <v>11994392.694037363</v>
+      </c>
+      <c r="D9" s="8">
+        <v>804147.51251275069</v>
+      </c>
+      <c r="E9">
+        <v>327881.31563095952</v>
+      </c>
+      <c r="F9">
+        <v>579139.10256493429</v>
+      </c>
+      <c r="G9">
+        <v>11059862.35380392</v>
+      </c>
+      <c r="H9">
+        <v>106381.2625085717</v>
+      </c>
+      <c r="I9">
+        <v>384190.84197899327</v>
+      </c>
+      <c r="J9">
+        <v>5212213.7491973126</v>
+      </c>
+      <c r="K9">
+        <v>1364119.7921171626</v>
+      </c>
+      <c r="L9">
+        <v>232302.12428362345</v>
+      </c>
+      <c r="M9">
+        <v>313378.03649656131</v>
+      </c>
+      <c r="N9">
+        <v>439811.68902518245</v>
+      </c>
+      <c r="O9">
+        <v>86970284.263690606</v>
+      </c>
+      <c r="P9">
+        <v>80559.826933796678</v>
+      </c>
+      <c r="Q9">
+        <v>1306624.7625178734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8">
+        <v>12205331.263812775</v>
+      </c>
+      <c r="C10" s="8">
+        <v>9839915.5837091189</v>
+      </c>
+      <c r="D10" s="8">
+        <v>579644.27457699343</v>
+      </c>
+      <c r="E10">
+        <v>532801.64114682493</v>
+      </c>
+      <c r="F10">
+        <v>888703.72847794695</v>
+      </c>
+      <c r="G10">
+        <v>21662022.466420393</v>
+      </c>
+      <c r="H10">
+        <v>304377.59074896947</v>
+      </c>
+      <c r="I10">
+        <v>1420740.6847232303</v>
+      </c>
+      <c r="J10">
+        <v>4317375.1263827309</v>
+      </c>
+      <c r="K10">
+        <v>12191.735162992527</v>
+      </c>
+      <c r="L10">
+        <v>444869.4967231534</v>
+      </c>
+      <c r="M10">
+        <v>3573.1138996040254</v>
+      </c>
+      <c r="N10">
+        <v>1762069.9382217305</v>
+      </c>
+      <c r="O10">
+        <v>93501782.545154572</v>
+      </c>
+      <c r="P10">
+        <v>489363.49140713888</v>
+      </c>
+      <c r="Q10">
+        <v>4494620.8832478849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>12860750.842148034</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9507290.5274371505</v>
+      </c>
+      <c r="D11" s="8">
+        <v>504851.55917347514</v>
+      </c>
+      <c r="E11">
+        <v>487025.86265173502</v>
+      </c>
+      <c r="F11">
+        <v>1981733.3738786925</v>
+      </c>
+      <c r="G11">
+        <v>18806324.520715542</v>
+      </c>
+      <c r="H11">
+        <v>481782.09354212997</v>
+      </c>
+      <c r="I11">
+        <v>913884.24099669815</v>
+      </c>
+      <c r="J11">
+        <v>5337302.1459054155</v>
+      </c>
+      <c r="K11">
+        <v>4787.4074702812923</v>
+      </c>
+      <c r="L11">
+        <v>171910.53611841489</v>
+      </c>
+      <c r="M11">
+        <v>4172.5023887627976</v>
+      </c>
+      <c r="N11">
+        <v>1866374.0926880215</v>
+      </c>
+      <c r="O11">
+        <v>107493437.44767253</v>
+      </c>
+      <c r="P11">
+        <v>422722.31586491305</v>
+      </c>
+      <c r="Q11">
+        <v>9379127.6937985849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8">
+        <v>10270341.261799943</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5632062.5278187264</v>
+      </c>
+      <c r="D12" s="8">
+        <v>551851.59193968179</v>
+      </c>
+      <c r="E12">
+        <v>476119.20053297054</v>
+      </c>
+      <c r="F12">
+        <v>814104.43982591119</v>
+      </c>
+      <c r="G12">
+        <v>29546989.867852379</v>
+      </c>
+      <c r="H12">
+        <v>88295.374097648673</v>
+      </c>
+      <c r="I12">
+        <v>402985.4128978423</v>
+      </c>
+      <c r="J12">
+        <v>4701700.5265782271</v>
+      </c>
+      <c r="K12">
+        <v>4141.8620946855899</v>
+      </c>
+      <c r="L12">
+        <v>393033.32590030704</v>
+      </c>
+      <c r="M12">
+        <v>3510.671865249496</v>
+      </c>
+      <c r="N12">
+        <v>2530110.0933568655</v>
+      </c>
+      <c r="O12">
+        <v>94532154.84278284</v>
+      </c>
+      <c r="P12">
+        <v>817666.81416980538</v>
+      </c>
+      <c r="Q12">
+        <v>6812193.2940531792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5250B3F-903C-9A45-8C77-FED8983B3E2D}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>764799.17651254393</v>
+      </c>
+      <c r="C2">
+        <v>214371.94041705827</v>
+      </c>
+      <c r="D2">
+        <v>6118540.6896439241</v>
+      </c>
+      <c r="E2">
+        <v>42255.713257796633</v>
+      </c>
+      <c r="F2">
+        <v>39132.452948990198</v>
+      </c>
+      <c r="G2">
+        <v>2449983.3098660563</v>
+      </c>
+      <c r="H2">
+        <v>698184.47123808286</v>
+      </c>
+      <c r="I2" s="3">
+        <v>621218.71821619349</v>
+      </c>
+      <c r="J2">
+        <v>6118540.6896439241</v>
+      </c>
+      <c r="K2">
+        <v>46974.355550925917</v>
+      </c>
+      <c r="L2" s="3">
+        <v>73320.100864833599</v>
+      </c>
+      <c r="M2">
+        <v>2449983.3098660563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2103181.0461563207</v>
+      </c>
+      <c r="C3">
+        <v>1665407.1150976059</v>
+      </c>
+      <c r="D3">
+        <v>7277333.6301681846</v>
+      </c>
+      <c r="E3">
+        <v>95796.013286280024</v>
+      </c>
+      <c r="F3">
+        <v>56938.319956198757</v>
+      </c>
+      <c r="G3">
+        <v>2514279.7386690751</v>
+      </c>
+      <c r="H3">
+        <v>901006.4411100396</v>
+      </c>
+      <c r="I3">
+        <v>3145569.4200291908</v>
+      </c>
+      <c r="J3">
+        <v>6118540.6896439241</v>
+      </c>
+      <c r="K3">
+        <v>22463.940327047349</v>
+      </c>
+      <c r="L3">
+        <v>251599.68915598968</v>
+      </c>
+      <c r="M3">
+        <v>2449983.3098660563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>658683.30154569319</v>
+      </c>
+      <c r="C4">
+        <v>10165869.977380006</v>
+      </c>
+      <c r="D4">
+        <v>292312730.93406588</v>
+      </c>
+      <c r="E4">
+        <v>141673.84210789492</v>
+      </c>
+      <c r="F4">
+        <v>135097.44768957002</v>
+      </c>
+      <c r="G4">
+        <v>2427712.3760401821</v>
+      </c>
+      <c r="H4">
+        <v>1743086.2374508921</v>
+      </c>
+      <c r="I4">
+        <v>7615051.9646955058</v>
+      </c>
+      <c r="J4">
+        <v>6118540.6896439241</v>
+      </c>
+      <c r="K4">
+        <v>100449.18700621973</v>
+      </c>
+      <c r="L4">
+        <v>516203.99149969313</v>
+      </c>
+      <c r="M4">
+        <v>2449983.3098660563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>13722.295482664484</v>
+      </c>
+      <c r="C5">
+        <v>13691502.051378192</v>
+      </c>
+      <c r="D5">
+        <v>250389900.1828053</v>
+      </c>
+      <c r="E5">
+        <v>2889.9225593437131</v>
+      </c>
+      <c r="F5">
+        <v>1637368.8256353545</v>
+      </c>
+      <c r="G5">
+        <v>27628181.037856355</v>
+      </c>
+      <c r="H5">
+        <v>2815647.9932654332</v>
+      </c>
+      <c r="I5">
+        <v>10503709.621248363</v>
+      </c>
+      <c r="J5">
+        <v>6118540.6896439241</v>
+      </c>
+      <c r="K5">
+        <v>59591.718588315838</v>
+      </c>
+      <c r="L5">
+        <v>1919493.9051099331</v>
+      </c>
+      <c r="M5">
+        <v>2449983.3098660563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5436.2737554582927</v>
+      </c>
+      <c r="C6">
+        <v>32300676.312806997</v>
+      </c>
+      <c r="D6">
+        <v>186485572.41119194</v>
+      </c>
+      <c r="E6">
+        <v>1998.7282492923978</v>
+      </c>
+      <c r="F6">
+        <v>8090896.865528197</v>
+      </c>
+      <c r="G6">
+        <v>32687545.059830505</v>
+      </c>
+      <c r="H6">
+        <v>4401709.5823644316</v>
+      </c>
+      <c r="I6">
+        <v>11160151.602999447</v>
+      </c>
+      <c r="J6">
+        <v>6118540.6896439241</v>
+      </c>
+      <c r="K6">
+        <v>127227.22645432626</v>
+      </c>
+      <c r="L6">
+        <v>4597288.7745011672</v>
+      </c>
+      <c r="M6">
+        <v>2449983.3098660563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1224.0991698343789</v>
+      </c>
+      <c r="C7">
+        <v>40311221.243571959</v>
+      </c>
+      <c r="D7">
+        <v>72511436.560070738</v>
+      </c>
+      <c r="E7">
+        <v>220.14146780424593</v>
+      </c>
+      <c r="F7">
+        <v>3033999.7584843161</v>
+      </c>
+      <c r="G7">
+        <v>4260164.0717570698</v>
+      </c>
+      <c r="H7">
+        <v>5469706.7578190174</v>
+      </c>
+      <c r="I7">
+        <v>16251688.247245604</v>
+      </c>
+      <c r="J7">
+        <v>6118540.6896439241</v>
+      </c>
+      <c r="K7">
+        <v>298527.84276572533</v>
+      </c>
+      <c r="L7">
+        <v>3189928.1159494193</v>
+      </c>
+      <c r="M7">
+        <v>2449983.3098660563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>747.47347643109697</v>
+      </c>
+      <c r="C8">
+        <v>50250582.22272414</v>
+      </c>
+      <c r="D8">
+        <v>118409491.81425105</v>
+      </c>
+      <c r="E8">
+        <v>316.09766310897083</v>
+      </c>
+      <c r="F8">
+        <v>9884897.610695418</v>
+      </c>
+      <c r="G8">
+        <v>23920308.050222728</v>
+      </c>
+      <c r="H8">
+        <v>4600931.5271930462</v>
+      </c>
+      <c r="I8">
+        <v>70067932.220453694</v>
+      </c>
+      <c r="J8">
+        <v>6118540.6896439241</v>
+      </c>
+      <c r="K8">
+        <v>215095.23180044739</v>
+      </c>
+      <c r="L8">
+        <v>8269783.3539870251</v>
+      </c>
+      <c r="M8">
+        <v>2449983.3098660563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>424.6186989649907</v>
+      </c>
+      <c r="C9">
+        <v>44230109.890827499</v>
+      </c>
+      <c r="D9">
+        <v>15816288.49155659</v>
+      </c>
+      <c r="E9">
+        <v>215.44349590258832</v>
+      </c>
+      <c r="F9">
+        <v>3080881.8859196072</v>
+      </c>
+      <c r="G9">
+        <v>4296370.7179129459</v>
+      </c>
+      <c r="H9">
+        <v>1831098.1034926286</v>
+      </c>
+      <c r="I9">
+        <v>113963462.32789753</v>
+      </c>
+      <c r="J9">
+        <v>6118540.6896439241</v>
+      </c>
+      <c r="K9">
+        <v>136348.57652545636</v>
+      </c>
+      <c r="L9">
+        <v>11978973.606566392</v>
+      </c>
+      <c r="M9">
+        <v>2449983.3098660563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>357.0038999254736</v>
+      </c>
+      <c r="C10">
+        <v>55357328.612862349</v>
+      </c>
+      <c r="D10">
+        <v>118306451.91626322</v>
+      </c>
+      <c r="E10">
+        <v>173.92668830064315</v>
+      </c>
+      <c r="F10">
+        <v>3545483.4096979718</v>
+      </c>
+      <c r="G10">
+        <v>11544534.131639458</v>
+      </c>
+      <c r="H10">
+        <v>118084.16706850265</v>
+      </c>
+      <c r="I10">
+        <v>229226335.23016629</v>
+      </c>
+      <c r="J10">
+        <v>6118540.6896439241</v>
+      </c>
+      <c r="K10">
+        <v>42262.668665859528</v>
+      </c>
+      <c r="L10">
+        <v>28107802.008028511</v>
+      </c>
+      <c r="M10">
+        <v>2449983.3098660563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1156.4193721887066</v>
+      </c>
+      <c r="C11">
+        <v>42543925.228843503</v>
+      </c>
+      <c r="D11">
+        <v>217077360.96182242</v>
+      </c>
+      <c r="E11">
+        <v>241.14382524445855</v>
+      </c>
+      <c r="F11">
+        <v>2417588.1298699789</v>
+      </c>
+      <c r="G11">
+        <v>1795240.8300189453</v>
+      </c>
+      <c r="H11">
+        <v>51457.814781950765</v>
+      </c>
+      <c r="I11">
+        <v>257670997.77322221</v>
+      </c>
+      <c r="J11">
+        <v>6118540.6896439241</v>
+      </c>
+      <c r="K11">
+        <v>32992.445650377063</v>
+      </c>
+      <c r="L11">
+        <v>2631699.5990272141</v>
+      </c>
+      <c r="M11">
+        <v>2449983.3098660563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3092.1513008479383</v>
+      </c>
+      <c r="C12">
+        <v>52764945.187850609</v>
+      </c>
+      <c r="D12">
+        <v>30804243.447608732</v>
+      </c>
+      <c r="E12">
+        <v>863.78245587834408</v>
+      </c>
+      <c r="F12">
+        <v>3480350.9793968336</v>
+      </c>
+      <c r="G12">
+        <v>2946279.200474876</v>
+      </c>
+      <c r="H12">
+        <v>24938.496851783955</v>
+      </c>
+      <c r="I12">
+        <v>284215522.33907014</v>
+      </c>
+      <c r="J12">
+        <v>6118540.6896439241</v>
+      </c>
+      <c r="K12">
+        <v>22260.986056571455</v>
+      </c>
+      <c r="L12">
+        <v>13000442.726384837</v>
+      </c>
+      <c r="M12">
+        <v>2449983.3098660563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C489B84C-AF53-3F4F-BA4E-5234407B9D8B}">
+  <dimension ref="A1:Y12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U1" t="s">
+        <v>164</v>
+      </c>
+      <c r="V1" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" t="s">
+        <v>151</v>
+      </c>
+      <c r="X1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>738102.06952191435</v>
+      </c>
+      <c r="C2">
+        <v>741760.06732508109</v>
+      </c>
+      <c r="D2">
+        <v>735169.8791716058</v>
+      </c>
+      <c r="E2">
+        <v>732502.90823013277</v>
+      </c>
+      <c r="F2">
+        <v>514711.44312697719</v>
+      </c>
+      <c r="G2">
+        <v>463387.76995561091</v>
+      </c>
+      <c r="H2">
+        <v>329706.0350903644</v>
+      </c>
+      <c r="I2">
+        <v>413936.57991396729</v>
+      </c>
+      <c r="J2">
+        <v>4596262.4784224518</v>
+      </c>
+      <c r="K2">
+        <v>2185181.6844686531</v>
+      </c>
+      <c r="L2">
+        <v>4008260.373899179</v>
+      </c>
+      <c r="M2">
+        <v>2611363.5489444472</v>
+      </c>
+      <c r="N2">
+        <v>28324.674487081997</v>
+      </c>
+      <c r="O2">
+        <v>29362.087823182177</v>
+      </c>
+      <c r="P2">
+        <v>33456.937924264988</v>
+      </c>
+      <c r="Q2">
+        <v>33171.862686917106</v>
+      </c>
+      <c r="R2">
+        <v>116622.81500497571</v>
+      </c>
+      <c r="S2">
+        <v>142795.73645818402</v>
+      </c>
+      <c r="T2">
+        <v>110665.11087814521</v>
+      </c>
+      <c r="U2">
+        <v>88234.137894189378</v>
+      </c>
+      <c r="V2">
+        <v>922818.13390708249</v>
+      </c>
+      <c r="W2">
+        <v>945223.86342487624</v>
+      </c>
+      <c r="X2">
+        <v>1126764.2827540506</v>
+      </c>
+      <c r="Y2">
+        <v>503311.96771601646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1598092.9600313008</v>
+      </c>
+      <c r="C3">
+        <v>1625631.942525873</v>
+      </c>
+      <c r="D3">
+        <v>1532780.1799803555</v>
+      </c>
+      <c r="E3">
+        <v>1547705.9262391571</v>
+      </c>
+      <c r="F3">
+        <v>70739.989413563409</v>
+      </c>
+      <c r="G3">
+        <v>2001440.3081393559</v>
+      </c>
+      <c r="H3">
+        <v>62551.477310583701</v>
+      </c>
+      <c r="I3">
+        <v>2409170.3964342172</v>
+      </c>
+      <c r="J3">
+        <v>789455.79520148598</v>
+      </c>
+      <c r="K3">
+        <v>647331.67855789419</v>
+      </c>
+      <c r="L3">
+        <v>2483619.7240314856</v>
+      </c>
+      <c r="M3">
+        <v>2281399.9919361696</v>
+      </c>
+      <c r="N3">
+        <v>54685.206201601104</v>
+      </c>
+      <c r="O3">
+        <v>46859.552503132552</v>
+      </c>
+      <c r="P3">
+        <v>47334.56487218746</v>
+      </c>
+      <c r="Q3">
+        <v>43596.975848523238</v>
+      </c>
+      <c r="R3">
+        <v>31944.651495711885</v>
+      </c>
+      <c r="S3">
+        <v>42097.999412900564</v>
+      </c>
+      <c r="T3">
+        <v>16930.209101487726</v>
+      </c>
+      <c r="U3">
+        <v>196592.91936954507</v>
+      </c>
+      <c r="V3">
+        <v>313771.91396770783</v>
+      </c>
+      <c r="W3">
+        <v>131000.26958863784</v>
+      </c>
+      <c r="X3">
+        <v>547334.13707684341</v>
+      </c>
+      <c r="Y3">
+        <v>158162.07906444257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3296117.4765991685</v>
+      </c>
+      <c r="C4">
+        <v>2995357.0477882321</v>
+      </c>
+      <c r="D4">
+        <v>1842908.1516411025</v>
+      </c>
+      <c r="E4">
+        <v>1656774.0764997995</v>
+      </c>
+      <c r="F4">
+        <v>159599.24235072546</v>
+      </c>
+      <c r="G4">
+        <v>6012554.363752109</v>
+      </c>
+      <c r="H4">
+        <v>166482.55677488665</v>
+      </c>
+      <c r="I4">
+        <v>10066640.823632725</v>
+      </c>
+      <c r="J4">
+        <v>3912002.7156103752</v>
+      </c>
+      <c r="K4">
+        <v>5064616.8278645957</v>
+      </c>
+      <c r="L4">
+        <v>288349534.27442682</v>
+      </c>
+      <c r="M4">
+        <v>237719715.48265246</v>
+      </c>
+      <c r="N4">
+        <v>104330.0762809552</v>
+      </c>
+      <c r="O4">
+        <v>96573.007193293422</v>
+      </c>
+      <c r="P4">
+        <v>112209.73633377001</v>
+      </c>
+      <c r="Q4">
+        <v>45721.239506259182</v>
+      </c>
+      <c r="R4">
+        <v>44353.647362649361</v>
+      </c>
+      <c r="S4">
+        <v>91417.122532629699</v>
+      </c>
+      <c r="T4">
+        <v>61979.256423578547</v>
+      </c>
+      <c r="U4">
+        <v>250568.40515238771</v>
+      </c>
+      <c r="V4">
+        <v>2281082.215976296</v>
+      </c>
+      <c r="W4">
+        <v>571158.46792904031</v>
+      </c>
+      <c r="X4">
+        <v>10164218.890162315</v>
+      </c>
+      <c r="Y4">
+        <v>5250809.0787336761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5392198.2508131443</v>
+      </c>
+      <c r="C5">
+        <v>5147896.4304233566</v>
+      </c>
+      <c r="D5">
+        <v>1753556.9091608019</v>
+      </c>
+      <c r="E5">
+        <v>292268.85078491521</v>
+      </c>
+      <c r="F5">
+        <v>64843.687694852873</v>
+      </c>
+      <c r="G5">
+        <v>6336723.0586686684</v>
+      </c>
+      <c r="H5">
+        <v>242956.9715220471</v>
+      </c>
+      <c r="I5">
+        <v>28102342.871678848</v>
+      </c>
+      <c r="J5">
+        <v>1651481.7480926833</v>
+      </c>
+      <c r="K5">
+        <v>1998212.5513591294</v>
+      </c>
+      <c r="L5">
+        <v>186092025.29079738</v>
+      </c>
+      <c r="M5">
+        <v>319121552.16638541</v>
+      </c>
+      <c r="N5">
+        <v>126362.11710072399</v>
+      </c>
+      <c r="O5">
+        <v>223972.78432970223</v>
+      </c>
+      <c r="P5">
+        <v>23262.180624542794</v>
+      </c>
+      <c r="Q5">
+        <v>36121.006496500311</v>
+      </c>
+      <c r="R5">
+        <v>3288.5256911839865</v>
+      </c>
+      <c r="S5">
+        <v>278705.17717173178</v>
+      </c>
+      <c r="T5">
+        <v>46699.595265058648</v>
+      </c>
+      <c r="U5">
+        <v>2874117.4415372568</v>
+      </c>
+      <c r="V5">
+        <v>236475.75355345703</v>
+      </c>
+      <c r="W5">
+        <v>424598.13715325447</v>
+      </c>
+      <c r="X5">
+        <v>16992151.874279633</v>
+      </c>
+      <c r="Y5">
+        <v>31066039.197804581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>6925331.8666998101</v>
+      </c>
+      <c r="C6">
+        <v>6779652.6765703922</v>
+      </c>
+      <c r="D6">
+        <v>2907513.7937293132</v>
+      </c>
+      <c r="E6">
+        <v>34342.868789418106</v>
+      </c>
+      <c r="F6">
+        <v>52151.418718426554</v>
+      </c>
+      <c r="G6">
+        <v>7241118.4334954023</v>
+      </c>
+      <c r="H6">
+        <v>1924552.2651761461</v>
+      </c>
+      <c r="I6">
+        <v>43199745.164884679</v>
+      </c>
+      <c r="J6">
+        <v>1147186.4720963042</v>
+      </c>
+      <c r="K6">
+        <v>1297492.9580559493</v>
+      </c>
+      <c r="L6">
+        <v>190040266.27455482</v>
+      </c>
+      <c r="M6">
+        <v>196214109.4903754</v>
+      </c>
+      <c r="N6">
+        <v>227641.26870784361</v>
+      </c>
+      <c r="O6">
+        <v>189552.76943767679</v>
+      </c>
+      <c r="P6">
+        <v>128188.18978926902</v>
+      </c>
+      <c r="Q6">
+        <v>9863.1166313131635</v>
+      </c>
+      <c r="R6">
+        <v>13494.671981548525</v>
+      </c>
+      <c r="S6">
+        <v>662692.6543970115</v>
+      </c>
+      <c r="T6">
+        <v>430132.25324312749</v>
+      </c>
+      <c r="U6">
+        <v>9234757.2384993304</v>
+      </c>
+      <c r="V6">
+        <v>233715.3704080235</v>
+      </c>
+      <c r="W6">
+        <v>333486.80891582539</v>
+      </c>
+      <c r="X6">
+        <v>20129236.267649654</v>
+      </c>
+      <c r="Y6">
+        <v>39497218.33246322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>8540253.6081157532</v>
+      </c>
+      <c r="C7">
+        <v>8568853.1065404844</v>
+      </c>
+      <c r="D7">
+        <v>3994424.2364082853</v>
+      </c>
+      <c r="E7">
+        <v>14531.87443098794</v>
+      </c>
+      <c r="F7">
+        <v>187434.92316072411</v>
+      </c>
+      <c r="G7">
+        <v>10135827.769851049</v>
+      </c>
+      <c r="H7">
+        <v>9925073.3929131106</v>
+      </c>
+      <c r="I7">
+        <v>60956486.904293559</v>
+      </c>
+      <c r="J7">
+        <v>1498276.4522855366</v>
+      </c>
+      <c r="K7">
+        <v>1675557.1930832344</v>
+      </c>
+      <c r="L7">
+        <v>161834058.90520412</v>
+      </c>
+      <c r="M7">
+        <v>19725094.582967285</v>
+      </c>
+      <c r="N7">
+        <v>161022.29034731322</v>
+      </c>
+      <c r="O7">
+        <v>144984.95538421872</v>
+      </c>
+      <c r="P7">
+        <v>153615.44044380129</v>
+      </c>
+      <c r="Q7">
+        <v>8170.0408751018549</v>
+      </c>
+      <c r="R7">
+        <v>41736.588943682786</v>
+      </c>
+      <c r="S7">
+        <v>1263707.9827875695</v>
+      </c>
+      <c r="T7">
+        <v>247112.03755046768</v>
+      </c>
+      <c r="U7">
+        <v>4711992.8789656153</v>
+      </c>
+      <c r="V7">
+        <v>524313.22119305655</v>
+      </c>
+      <c r="W7">
+        <v>539598.39064685081</v>
+      </c>
+      <c r="X7">
+        <v>9943832.0779850259</v>
+      </c>
+      <c r="Y7">
+        <v>17621733.772621401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>9703610.2442657258</v>
+      </c>
+      <c r="C8">
+        <v>8992897.7079883348</v>
+      </c>
+      <c r="D8">
+        <v>5445243.6509222975</v>
+      </c>
+      <c r="E8">
+        <v>15204.593760092319</v>
+      </c>
+      <c r="F8">
+        <v>333893.23667911644</v>
+      </c>
+      <c r="G8">
+        <v>16012583.996211702</v>
+      </c>
+      <c r="H8">
+        <v>22114335.029701151</v>
+      </c>
+      <c r="I8">
+        <v>115018463.41734131</v>
+      </c>
+      <c r="J8">
+        <v>14189042.001176193</v>
+      </c>
+      <c r="K8">
+        <v>28473769.583486557</v>
+      </c>
+      <c r="L8">
+        <v>203377216.6195308</v>
+      </c>
+      <c r="M8">
+        <v>128579057.31440137</v>
+      </c>
+      <c r="N8">
+        <v>256602.15090388467</v>
+      </c>
+      <c r="O8">
+        <v>808928.49519468925</v>
+      </c>
+      <c r="P8">
+        <v>121990.65180352106</v>
+      </c>
+      <c r="Q8">
+        <v>10231.879521816662</v>
+      </c>
+      <c r="R8">
+        <v>61390.99487040539</v>
+      </c>
+      <c r="S8">
+        <v>4652856.8956592679</v>
+      </c>
+      <c r="T8">
+        <v>3735023.5890892679</v>
+      </c>
+      <c r="U8">
+        <v>12823655.213591343</v>
+      </c>
+      <c r="V8">
+        <v>4273889.9758405462</v>
+      </c>
+      <c r="W8">
+        <v>14683378.475480832</v>
+      </c>
+      <c r="X8">
+        <v>18616340.74203442</v>
+      </c>
+      <c r="Y8">
+        <v>4122619.2403675709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>9937881.7356941774</v>
+      </c>
+      <c r="C9">
+        <v>7911951.3337371694</v>
+      </c>
+      <c r="D9">
+        <v>5903430.9049185282</v>
+      </c>
+      <c r="E9">
+        <v>39717.595402835817</v>
+      </c>
+      <c r="F9">
+        <v>507910.39334831078</v>
+      </c>
+      <c r="G9">
+        <v>21140186.661403764</v>
+      </c>
+      <c r="H9">
+        <v>57378602.347406566</v>
+      </c>
+      <c r="I9">
+        <v>101887743.33150752</v>
+      </c>
+      <c r="J9">
+        <v>127835838.65204485</v>
+      </c>
+      <c r="K9">
+        <v>134810145.02530554</v>
+      </c>
+      <c r="L9">
+        <v>234899063.61331332</v>
+      </c>
+      <c r="M9">
+        <v>105099471.36803925</v>
+      </c>
+      <c r="N9">
+        <v>173934.12050743363</v>
+      </c>
+      <c r="O9">
+        <v>880713.04632889968</v>
+      </c>
+      <c r="P9">
+        <v>158692.58626532112</v>
+      </c>
+      <c r="Q9">
+        <v>24386.492487347135</v>
+      </c>
+      <c r="R9">
+        <v>32929.153044120721</v>
+      </c>
+      <c r="S9">
+        <v>1690304.935913044</v>
+      </c>
+      <c r="T9">
+        <v>3870874.2450698828</v>
+      </c>
+      <c r="U9">
+        <v>4576280.0708105462</v>
+      </c>
+      <c r="V9">
+        <v>12779385.907886915</v>
+      </c>
+      <c r="W9">
+        <v>38689295.446030684</v>
+      </c>
+      <c r="X9">
+        <v>18582013.631953094</v>
+      </c>
+      <c r="Y9">
+        <v>29394885.049601551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>8426531.2213222645</v>
+      </c>
+      <c r="C10">
+        <v>3167281.7410292923</v>
+      </c>
+      <c r="D10">
+        <v>4840826.5957539389</v>
+      </c>
+      <c r="E10">
+        <v>136087.66516481718</v>
+      </c>
+      <c r="F10">
+        <v>673704.1781206032</v>
+      </c>
+      <c r="G10">
+        <v>28523274.70110653</v>
+      </c>
+      <c r="H10">
+        <v>125381710.99407618</v>
+      </c>
+      <c r="I10">
+        <v>90429643.991384104</v>
+      </c>
+      <c r="J10">
+        <v>56055166.316527456</v>
+      </c>
+      <c r="K10">
+        <v>158520673.11739618</v>
+      </c>
+      <c r="L10">
+        <v>197190553.95933679</v>
+      </c>
+      <c r="M10">
+        <v>100312279.47145589</v>
+      </c>
+      <c r="N10">
+        <v>360758.83410627971</v>
+      </c>
+      <c r="O10">
+        <v>270492.34961492236</v>
+      </c>
+      <c r="P10">
+        <v>292727.04982787388</v>
+      </c>
+      <c r="Q10">
+        <v>83034.034929447269</v>
+      </c>
+      <c r="R10">
+        <v>147663.05249146433</v>
+      </c>
+      <c r="S10">
+        <v>6759721.2011930393</v>
+      </c>
+      <c r="T10">
+        <v>11896058.391867898</v>
+      </c>
+      <c r="U10">
+        <v>4777653.1124561336</v>
+      </c>
+      <c r="V10">
+        <v>30404162.388998687</v>
+      </c>
+      <c r="W10">
+        <v>56778839.724206552</v>
+      </c>
+      <c r="X10">
+        <v>9580584.6850985512</v>
+      </c>
+      <c r="Y10">
+        <v>7895450.5310188178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>8772589.0465103481</v>
+      </c>
+      <c r="C11">
+        <v>996188.88436099514</v>
+      </c>
+      <c r="D11">
+        <v>5904187.5498421928</v>
+      </c>
+      <c r="E11">
+        <v>476636.40952726424</v>
+      </c>
+      <c r="F11">
+        <v>640635.38607801928</v>
+      </c>
+      <c r="G11">
+        <v>17235720.933986198</v>
+      </c>
+      <c r="H11">
+        <v>155098193.06131962</v>
+      </c>
+      <c r="I11">
+        <v>72979196.090848863</v>
+      </c>
+      <c r="J11">
+        <v>46656082.145156242</v>
+      </c>
+      <c r="K11">
+        <v>376059763.79274279</v>
+      </c>
+      <c r="L11">
+        <v>201931017.2166529</v>
+      </c>
+      <c r="M11">
+        <v>117708516.14853065</v>
+      </c>
+      <c r="N11">
+        <v>193308.23610220139</v>
+      </c>
+      <c r="O11">
+        <v>81336.266593524124</v>
+      </c>
+      <c r="P11">
+        <v>214111.26722384646</v>
+      </c>
+      <c r="Q11">
+        <v>280581.56953598669</v>
+      </c>
+      <c r="R11">
+        <v>59234.952223328051</v>
+      </c>
+      <c r="S11">
+        <v>571087.35328382312</v>
+      </c>
+      <c r="T11">
+        <v>14686924.0562586</v>
+      </c>
+      <c r="U11">
+        <v>9535779.6138079632</v>
+      </c>
+      <c r="V11">
+        <v>18746763.032579083</v>
+      </c>
+      <c r="W11">
+        <v>1326151.0057244613</v>
+      </c>
+      <c r="X11">
+        <v>1632762.2779572047</v>
+      </c>
+      <c r="Y11">
+        <v>14427114.876760695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>7703495.4873887077</v>
+      </c>
+      <c r="C12">
+        <v>55062.279316435597</v>
+      </c>
+      <c r="D12">
+        <v>6203548.0093502058</v>
+      </c>
+      <c r="E12">
+        <v>1148663.8400851905</v>
+      </c>
+      <c r="F12">
+        <v>997248.54968950618</v>
+      </c>
+      <c r="G12">
+        <v>35119582.327620931</v>
+      </c>
+      <c r="H12">
+        <v>203719726.49108395</v>
+      </c>
+      <c r="I12">
+        <v>103324555.15263052</v>
+      </c>
+      <c r="J12">
+        <v>31819186.520333346</v>
+      </c>
+      <c r="K12">
+        <v>113655452.46396688</v>
+      </c>
+      <c r="L12">
+        <v>171445848.29459706</v>
+      </c>
+      <c r="M12">
+        <v>86608807.730792955</v>
+      </c>
+      <c r="N12">
+        <v>351061.13741090184</v>
+      </c>
+      <c r="O12">
+        <v>22738.017469575254</v>
+      </c>
+      <c r="P12">
+        <v>744221.67689128418</v>
+      </c>
+      <c r="Q12">
+        <v>636058.12666330021</v>
+      </c>
+      <c r="R12">
+        <v>111136.43241648575</v>
+      </c>
+      <c r="S12">
+        <v>5003671.575419344</v>
+      </c>
+      <c r="T12">
+        <v>4441450.6505726259</v>
+      </c>
+      <c r="U12">
+        <v>6447142.4163116207</v>
+      </c>
+      <c r="V12">
+        <v>11819853.091438217</v>
+      </c>
+      <c r="W12">
+        <v>44041648.026826404</v>
+      </c>
+      <c r="X12">
+        <v>7110100.0716838166</v>
+      </c>
+      <c r="Y12">
+        <v>15620466.85441795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2626,14 +6728,14 @@
       <selection activeCell="A26" sqref="A26:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2642,7 +6744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2662,7 +6764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2682,7 +6784,7 @@
         <v>28566.161126162315</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2702,7 +6804,7 @@
         <v>33850.625535032734</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2722,7 +6824,7 @@
         <v>45737.058084465687</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2742,7 +6844,7 @@
         <v>198285.41793409691</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2762,7 +6864,7 @@
         <v>185585.08555131868</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2782,7 +6884,7 @@
         <v>247879.04341263542</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2802,7 +6904,7 @@
         <v>692081.4124717348</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2822,7 +6924,7 @@
         <v>383204.01192974945</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2842,7 +6944,7 @@
         <v>388959.12098691787</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2862,7 +6964,7 @@
         <v>39665.265687338149</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2882,7 +6984,7 @@
         <v>5702.0419542737127</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2902,7 +7004,7 @@
         <v>882.38716922942399</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2922,7 +7024,7 @@
         <v>750.86663670282996</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>18</v>
       </c>
@@ -2942,7 +7044,7 @@
         <v>520.90411633583187</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>19</v>
       </c>
@@ -2962,7 +7064,7 @@
         <v>812.6471609184523</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20</v>
       </c>
@@ -2982,7 +7084,7 @@
         <v>1507.2664903484699</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>21</v>
       </c>
@@ -3002,7 +7104,7 @@
         <v>3522.9280326012849</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>22</v>
       </c>
@@ -3022,7 +7124,7 @@
         <v>5897.9593369274389</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +7134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -3052,7 +7154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3072,7 +7174,7 @@
         <v>13649.309899785545</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3092,7 +7194,7 @@
         <v>216860.90711476534</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3112,7 +7214,7 @@
         <v>181496.59297199929</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3132,7 +7234,7 @@
         <v>233289.70880931703</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3152,7 +7254,7 @@
         <v>70894.968954337353</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7</v>
       </c>
@@ -3172,7 +7274,7 @@
         <v>289620.81760657957</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8</v>
       </c>
@@ -3192,7 +7294,7 @@
         <v>5858952.1435051188</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -3212,7 +7314,7 @@
         <v>5163997.3084427854</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10</v>
       </c>
@@ -3232,7 +7334,7 @@
         <v>1877352.5315137273</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>11</v>
       </c>
@@ -3252,7 +7354,7 @@
         <v>11566767.776593875</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>12</v>
       </c>
@@ -3272,7 +7374,7 @@
         <v>2974847.8160238718</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>13</v>
       </c>
@@ -3292,7 +7394,7 @@
         <v>32523470.605145618</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>14</v>
       </c>
@@ -3312,7 +7414,7 @@
         <v>18980826.705229465</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>15</v>
       </c>
@@ -3332,7 +7434,7 @@
         <v>7485165.0686522899</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>18</v>
       </c>
@@ -3352,7 +7454,7 @@
         <v>5011616.9641796583</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>19</v>
       </c>
@@ -3372,7 +7474,7 @@
         <v>12590727.005898269</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>20</v>
       </c>
@@ -3392,7 +7494,7 @@
         <v>9405342.1770970616</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>21</v>
       </c>
@@ -3412,7 +7514,7 @@
         <v>2977164.6988923312</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>22</v>
       </c>
@@ -3442,11 +7544,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
@@ -3454,7 +7556,7 @@
     <col min="7" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +7565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3483,7 +7585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3503,7 +7605,7 @@
         <v>54195.93304187106</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3523,7 +7625,7 @@
         <v>134895.85161200628</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3543,7 +7645,7 @@
         <v>222061.81512885218</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3563,7 +7665,7 @@
         <v>205973.54871816596</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3583,7 +7685,7 @@
         <v>247082.38680665384</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3603,7 +7705,7 @@
         <v>108573.84694598099</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3623,7 +7725,7 @@
         <v>259464.03911269404</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -3643,7 +7745,7 @@
         <v>353935.5967097471</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3663,7 +7765,7 @@
         <v>243039.56790840492</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -3683,7 +7785,7 @@
         <v>296232.7282762659</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -3703,7 +7805,7 @@
         <v>294593.90015972592</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -3723,7 +7825,7 @@
         <v>33508.124142503315</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3731,7 +7833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -3751,7 +7853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3771,7 +7873,7 @@
         <v>0.3089716688604659</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3791,7 +7893,7 @@
         <v>0.17063032210764942</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3811,7 +7913,7 @@
         <v>0.30979263093402487</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3831,7 +7933,7 @@
         <v>0.47990788648661631</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3851,7 +7953,7 @@
         <v>0.24012086823041887</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -3871,7 +7973,7 @@
         <v>0.48838970047336905</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -3891,7 +7993,7 @@
         <v>1.5809712871055397</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -3911,7 +8013,7 @@
         <v>1.6996805835393229</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -3931,7 +8033,7 @@
         <v>1.2196522777091645</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>9</v>
       </c>
@@ -3951,7 +8053,7 @@
         <v>2.8687400462105495</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10</v>
       </c>
@@ -3971,7 +8073,7 @@
         <v>0.86948325450515263</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>11</v>
       </c>
@@ -3991,7 +8093,7 @@
         <v>0.44342279589325773</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -4001,7 +8103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -4021,7 +8123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -4041,7 +8143,7 @@
         <v>5343.2919856657963</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -4061,7 +8163,7 @@
         <v>34626.793253408883</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -4081,7 +8183,7 @@
         <v>57413.061316488798</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -4101,7 +8203,7 @@
         <v>152659.94592864724</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
@@ -4121,7 +8223,7 @@
         <v>154608.12398304159</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -4141,7 +8243,7 @@
         <v>514149.7693120545</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6</v>
       </c>
@@ -4161,7 +8263,7 @@
         <v>1231602.8458818975</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7</v>
       </c>
@@ -4181,7 +8283,7 @@
         <v>1926865.9390177268</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>8</v>
       </c>
@@ -4201,7 +8303,7 @@
         <v>3980982.4658011245</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>9</v>
       </c>
@@ -4221,7 +8323,7 @@
         <v>8138776.1125813834</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10</v>
       </c>
@@ -4241,7 +8343,7 @@
         <v>8283585.4115462722</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>11</v>
       </c>
@@ -4269,15 +8371,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:I68"/>
+  <dimension ref="A3:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4286,7 +8388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4306,7 +8408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4326,7 +8428,7 @@
         <v>5025.9268603623495</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4346,7 +8448,7 @@
         <v>29976.50198354758</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4366,7 +8468,7 @@
         <v>14651.371382513522</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4386,7 +8488,7 @@
         <v>22482.51890420678</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4406,7 +8508,7 @@
         <v>80874.877804995165</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4426,7 +8528,7 @@
         <v>41932.784959060991</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4446,7 +8548,7 @@
         <v>100459.1006479715</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4466,7 +8568,7 @@
         <v>109887.45684564911</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4486,7 +8588,7 @@
         <v>42756.206127890764</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4506,7 +8608,7 @@
         <v>93304.737666892601</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4526,7 +8628,7 @@
         <v>155286.17830541715</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4546,7 +8648,7 @@
         <v>175818.4956754235</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -4554,7 +8656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4574,7 +8676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4594,7 +8696,7 @@
         <v>0.76823605115304339</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4614,7 +8716,7 @@
         <v>1.0538706169032237</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -4634,7 +8736,7 @@
         <v>0.88185825957999708</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4654,7 +8756,7 @@
         <v>1.5418706015393719</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -4674,7 +8776,7 @@
         <v>0.38957886511380485</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
@@ -4694,7 +8796,7 @@
         <v>2.5075582230928362</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
@@ -4714,7 +8816,7 @@
         <v>3.2995078164609239</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -4734,7 +8836,7 @@
         <v>2.5507607733295821</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11</v>
       </c>
@@ -4754,7 +8856,7 @@
         <v>4.6276705536545579</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -4774,7 +8876,7 @@
         <v>10.375097481921637</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>13</v>
       </c>
@@ -4794,7 +8896,7 @@
         <v>10.775244792443367</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>14</v>
       </c>
@@ -4814,7 +8916,7 @@
         <v>11.984764446081588</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -4824,7 +8926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -4844,7 +8946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -4863,8 +8965,12 @@
       <c r="H39">
         <v>44506.250345656525</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="J39">
+        <f>LOG(G39)</f>
+        <v>4.8051141619487971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4883,8 +8989,12 @@
       <c r="H40">
         <v>48625.366554716747</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="J40">
+        <f t="shared" ref="J40:J50" si="0">LOG(G40)</f>
+        <v>4.0544303391095706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -4903,8 +9013,12 @@
       <c r="H41">
         <v>9201.8822189318289</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>4.8012074984037305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6</v>
       </c>
@@ -4923,8 +9037,12 @@
       <c r="H42">
         <v>421753.31361891417</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>4.8530279035772983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
@@ -4943,8 +9061,12 @@
       <c r="H43">
         <v>163613.19169212959</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>4.4337864604143773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>8</v>
       </c>
@@ -4963,8 +9085,12 @@
       <c r="H44">
         <v>144369.56504550981</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>4.3567368442502152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9</v>
       </c>
@@ -4983,8 +9109,12 @@
       <c r="H45">
         <v>1470278.445328315</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>4.5884031782868071</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10</v>
       </c>
@@ -5003,8 +9133,12 @@
       <c r="H46">
         <v>1934528.1848986784</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>5.0062521257443029</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>11</v>
       </c>
@@ -5023,8 +9157,12 @@
       <c r="H47">
         <v>4021432.5814595288</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>5.2767258691146424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>12</v>
       </c>
@@ -5043,8 +9181,12 @@
       <c r="H48">
         <v>5421908.7858862029</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>5.1119554458174994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>13</v>
       </c>
@@ -5063,8 +9205,12 @@
       <c r="H49">
         <v>2710541.7183084916</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>5.1738426421000261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>14</v>
       </c>
@@ -5074,6 +9220,10 @@
       <c r="C50">
         <v>42332041.451096654</v>
       </c>
+      <c r="E50">
+        <f>B50/B39</f>
+        <v>7.7238953130371728</v>
+      </c>
       <c r="F50">
         <v>14</v>
       </c>
@@ -5083,8 +9233,12 @@
       <c r="H50">
         <v>4909387.9926532339</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>5.2429662005262854</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -5095,7 +9249,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -5103,7 +9257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -5123,7 +9277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -5143,7 +9297,7 @@
         <v>1.0587889495066005E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -5163,7 +9317,7 @@
         <v>1.5122685215370704E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4</v>
       </c>
@@ -5183,7 +9337,7 @@
         <v>1.0536998797461193E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6</v>
       </c>
@@ -5203,7 +9357,7 @@
         <v>1.7987801834062581E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>7</v>
       </c>
@@ -5223,7 +9377,7 @@
         <v>1.5880328875694107E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>8</v>
       </c>
@@ -5243,7 +9397,7 @@
         <v>1.4295751533061726E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>9</v>
       </c>
@@ -5263,7 +9417,7 @@
         <v>0.14559208922106473</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10</v>
       </c>
@@ -5283,7 +9437,7 @@
         <v>0.31590255194826161</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>11</v>
       </c>
@@ -5303,7 +9457,7 @@
         <v>0.2301986473184448</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>12</v>
       </c>
@@ -5323,7 +9477,7 @@
         <v>3.9263154245689517E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>13</v>
       </c>
@@ -5343,7 +9497,7 @@
         <v>9.7020883888130325E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>14</v>
       </c>
@@ -5377,7 +9531,7 @@
       <selection activeCell="T40" sqref="M40:T40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
@@ -5387,7 +9541,7 @@
     <col min="13" max="20" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -5395,7 +9549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -5451,7 +9605,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -5507,7 +9661,7 @@
         <v>53237.773365520639</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -5563,7 +9717,7 @@
         <v>68785.319968930009</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -5619,7 +9773,7 @@
         <v>86918.733067578229</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -5675,7 +9829,7 @@
         <v>145223.15932039096</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4</v>
       </c>
@@ -5731,7 +9885,7 @@
         <v>193133.40886522882</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>5</v>
       </c>
@@ -5787,7 +9941,7 @@
         <v>51031.65081061863</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>6</v>
       </c>
@@ -5843,7 +9997,7 @@
         <v>1410.2822820122281</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>7</v>
       </c>
@@ -5899,7 +10053,7 @@
         <v>485.0499000288267</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>8</v>
       </c>
@@ -5955,7 +10109,7 @@
         <v>162.62658430799681</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>9</v>
       </c>
@@ -6011,7 +10165,7 @@
         <v>218.27233923741326</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>10</v>
       </c>
@@ -6067,7 +10221,7 @@
         <v>116.40995760051788</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>11</v>
       </c>
@@ -6123,7 +10277,7 @@
         <v>84.195110089663487</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -6131,7 +10285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -6187,7 +10341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0</v>
       </c>
@@ -6243,7 +10397,7 @@
         <v>0.75386431537230425</v>
       </c>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>1</v>
       </c>
@@ -6299,7 +10453,7 @@
         <v>0.2487653359231832</v>
       </c>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>2</v>
       </c>
@@ -6355,7 +10509,7 @@
         <v>0.2285326097746074</v>
       </c>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>3</v>
       </c>
@@ -6411,7 +10565,7 @@
         <v>2.9588753726467645</v>
       </c>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>4</v>
       </c>
@@ -6467,7 +10621,7 @@
         <v>9.8809012094785906</v>
       </c>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>5</v>
       </c>
@@ -6523,7 +10677,7 @@
         <v>0.34824385806174984</v>
       </c>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>6</v>
       </c>
@@ -6579,7 +10733,7 @@
         <v>5.6821166237955939E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>7</v>
       </c>
@@ -6635,7 +10789,7 @@
         <v>1.3242452536187862E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>8</v>
       </c>
@@ -6691,7 +10845,7 @@
         <v>8.0411017594076983E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:20">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>9</v>
       </c>
@@ -6747,7 +10901,7 @@
         <v>7.6871763284637212E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>10</v>
       </c>
@@ -6803,7 +10957,7 @@
         <v>8.1047322675226394E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:20">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>11</v>
       </c>
@@ -6859,7 +11013,7 @@
         <v>0.1273285777597494</v>
       </c>
     </row>
-    <row r="39" spans="2:20">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>1</v>
       </c>
@@ -6867,7 +11021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:20">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>8</v>
       </c>
@@ -6923,7 +11077,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="2:20">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>0</v>
       </c>
@@ -6979,7 +11133,7 @@
         <v>11230.661952136616</v>
       </c>
     </row>
-    <row r="42" spans="2:20">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>1</v>
       </c>
@@ -7035,7 +11189,7 @@
         <v>42149.920621474565</v>
       </c>
     </row>
-    <row r="43" spans="2:20">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>2</v>
       </c>
@@ -7091,7 +11245,7 @@
         <v>341725.56364664622</v>
       </c>
     </row>
-    <row r="44" spans="2:20">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>3</v>
       </c>
@@ -7147,7 +11301,7 @@
         <v>882555.42444576183</v>
       </c>
     </row>
-    <row r="45" spans="2:20">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>4</v>
       </c>
@@ -7203,7 +11357,7 @@
         <v>2558537.5980421253</v>
       </c>
     </row>
-    <row r="46" spans="2:20">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>5</v>
       </c>
@@ -7259,7 +11413,7 @@
         <v>1459360.4857569938</v>
       </c>
     </row>
-    <row r="47" spans="2:20">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>6</v>
       </c>
@@ -7315,7 +11469,7 @@
         <v>3488650.3346616887</v>
       </c>
     </row>
-    <row r="48" spans="2:20">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>7</v>
       </c>
@@ -7371,7 +11525,7 @@
         <v>2328941.0502505689</v>
       </c>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>8</v>
       </c>
@@ -7427,7 +11581,7 @@
         <v>4042672.2324354826</v>
       </c>
     </row>
-    <row r="50" spans="2:20">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>9</v>
       </c>
@@ -7483,7 +11637,7 @@
         <v>1047885.8978245463</v>
       </c>
     </row>
-    <row r="51" spans="2:20">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>10</v>
       </c>
@@ -7539,7 +11693,7 @@
         <v>2133835.71063889</v>
       </c>
     </row>
-    <row r="52" spans="2:20">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>11</v>
       </c>
@@ -7605,13 +11759,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11F9B0A-6CCD-934B-9BE0-3345BB4C640D}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB32" sqref="AB31:AB32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -7712,7 +11866,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7813,7 +11967,7 @@
         <v>11230.661952136616</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7914,7 +12068,7 @@
         <v>42149.920621474565</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8015,7 +12169,7 @@
         <v>341725.56364664622</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8116,7 +12270,7 @@
         <v>882555.42444576183</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8217,7 +12371,7 @@
         <v>2558537.5980421253</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8318,7 +12472,7 @@
         <v>1459360.4857569938</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8419,7 +12573,7 @@
         <v>3488650.3346616887</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8520,7 +12674,7 @@
         <v>2328941.0502505689</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8621,7 +12775,7 @@
         <v>4042672.2324354826</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8722,7 +12876,7 @@
         <v>1047885.8978245463</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8823,7 +12977,7 @@
         <v>2133835.71063889</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8937,7 +13091,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -8957,7 +13111,7 @@
     <col min="21" max="21" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
         <v>2090</v>
       </c>
@@ -8965,7 +13119,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -8973,7 +13127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -9029,7 +13183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -9085,7 +13239,7 @@
         <v>2552.245523826874</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -9141,7 +13295,7 @@
         <v>25857.378677646542</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -9197,7 +13351,7 @@
         <v>22297.635408936552</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -9253,7 +13407,7 @@
         <v>22247.57065030422</v>
       </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4</v>
       </c>
@@ -9309,7 +13463,7 @@
         <v>4615.0602868639635</v>
       </c>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>5</v>
       </c>
@@ -9365,7 +13519,7 @@
         <v>14459.319812888465</v>
       </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>6</v>
       </c>
@@ -9421,7 +13575,7 @@
         <v>45763.71812250217</v>
       </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>7</v>
       </c>
@@ -9477,7 +13631,7 @@
         <v>74666.753582445701</v>
       </c>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>8</v>
       </c>
@@ -9533,7 +13687,7 @@
         <v>28796.986986729858</v>
       </c>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>9</v>
       </c>
@@ -9589,7 +13743,7 @@
         <v>80178.038718269556</v>
       </c>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>10</v>
       </c>
@@ -9645,7 +13799,7 @@
         <v>12560.032417686403</v>
       </c>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>11</v>
       </c>
@@ -9701,7 +13855,7 @@
         <v>101873.11006474619</v>
       </c>
     </row>
-    <row r="17" spans="2:21">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>12</v>
       </c>
@@ -9757,7 +13911,7 @@
         <v>72153.115599070137</v>
       </c>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>13</v>
       </c>
@@ -9813,7 +13967,7 @@
         <v>62599.537850841109</v>
       </c>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>379</v>
       </c>
@@ -9821,7 +13975,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="2:21">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -9829,7 +13983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:21">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -9885,7 +14039,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:21">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>0</v>
       </c>
@@ -9941,7 +14095,7 @@
         <v>17485.878987332475</v>
       </c>
     </row>
-    <row r="26" spans="2:21">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1</v>
       </c>
@@ -9997,7 +14151,7 @@
         <v>40971.241645743707</v>
       </c>
     </row>
-    <row r="27" spans="2:21">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>2</v>
       </c>
@@ -10053,7 +14207,7 @@
         <v>79197.467282993326</v>
       </c>
     </row>
-    <row r="28" spans="2:21">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>3</v>
       </c>
@@ -10109,7 +14263,7 @@
         <v>36011.396181620796</v>
       </c>
     </row>
-    <row r="29" spans="2:21">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>4</v>
       </c>
@@ -10165,7 +14319,7 @@
         <v>136825.63535792805</v>
       </c>
     </row>
-    <row r="30" spans="2:21">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>5</v>
       </c>
@@ -10221,7 +14375,7 @@
         <v>129638.01878533475</v>
       </c>
     </row>
-    <row r="31" spans="2:21">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>6</v>
       </c>
@@ -10277,7 +14431,7 @@
         <v>149154.4813429254</v>
       </c>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>7</v>
       </c>
@@ -10333,7 +14487,7 @@
         <v>269106.98543751583</v>
       </c>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>8</v>
       </c>
@@ -10389,7 +14543,7 @@
         <v>189056.67427745688</v>
       </c>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>9</v>
       </c>
@@ -10445,7 +14599,7 @@
         <v>128204.13558645129</v>
       </c>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>10</v>
       </c>
@@ -10501,7 +14655,7 @@
         <v>327442.72439035925</v>
       </c>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>11</v>
       </c>
@@ -10557,7 +14711,7 @@
         <v>251126.32694712872</v>
       </c>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>12</v>
       </c>
@@ -10613,7 +14767,7 @@
         <v>113382.47569753217</v>
       </c>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>13</v>
       </c>
@@ -10669,7 +14823,7 @@
         <v>62664.624874035282</v>
       </c>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="5">
         <v>2090</v>
       </c>
@@ -10677,7 +14831,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="43" spans="2:21">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -10685,7 +14839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>8</v>
       </c>
@@ -10741,7 +14895,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:21">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>0</v>
       </c>
@@ -10797,7 +14951,7 @@
         <v>96970.438121308835</v>
       </c>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>1</v>
       </c>
@@ -10853,7 +15007,7 @@
         <v>193219.93456558196</v>
       </c>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>2</v>
       </c>
@@ -10909,7 +15063,7 @@
         <v>278601.10944702127</v>
       </c>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>3</v>
       </c>
@@ -10965,7 +15119,7 @@
         <v>391453.27279049397</v>
       </c>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>4</v>
       </c>
@@ -11021,7 +15175,7 @@
         <v>1520210.5510200441</v>
       </c>
     </row>
-    <row r="50" spans="2:21">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>5</v>
       </c>
@@ -11077,7 +15231,7 @@
         <v>820106.38037072844</v>
       </c>
     </row>
-    <row r="51" spans="2:21">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>6</v>
       </c>
@@ -11133,7 +15287,7 @@
         <v>564258.57226531254</v>
       </c>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>7</v>
       </c>
@@ -11189,7 +15343,7 @@
         <v>1015060.3696272891</v>
       </c>
     </row>
-    <row r="53" spans="2:21">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>8</v>
       </c>
@@ -11245,7 +15399,7 @@
         <v>743951.46088378038</v>
       </c>
     </row>
-    <row r="54" spans="2:21">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>9</v>
       </c>
@@ -11301,7 +15455,7 @@
         <v>428209.99733801431</v>
       </c>
     </row>
-    <row r="55" spans="2:21">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>10</v>
       </c>
@@ -11357,7 +15511,7 @@
         <v>416113.93777626177</v>
       </c>
     </row>
-    <row r="56" spans="2:21">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>11</v>
       </c>
@@ -11413,7 +15567,7 @@
         <v>408976.64741876017</v>
       </c>
     </row>
-    <row r="57" spans="2:21">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>12</v>
       </c>
@@ -11469,7 +15623,7 @@
         <v>387274.17096045939</v>
       </c>
     </row>
-    <row r="58" spans="2:21">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>13</v>
       </c>
@@ -11525,7 +15679,7 @@
         <v>186829.85543715081</v>
       </c>
     </row>
-    <row r="63" spans="2:21">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B63" s="5">
         <v>379</v>
       </c>
@@ -11533,7 +15687,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="2:21">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>1</v>
       </c>
@@ -11541,7 +15695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:21">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>8</v>
       </c>
@@ -11597,7 +15751,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="2:21">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>0</v>
       </c>
@@ -11653,7 +15807,7 @@
         <v>47689.771216094327</v>
       </c>
     </row>
-    <row r="67" spans="2:21">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>1</v>
       </c>
@@ -11709,7 +15863,7 @@
         <v>134736.7161343258</v>
       </c>
     </row>
-    <row r="68" spans="2:21">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>2</v>
       </c>
@@ -11765,7 +15919,7 @@
         <v>315266.36557262973</v>
       </c>
     </row>
-    <row r="69" spans="2:21">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>3</v>
       </c>
@@ -11821,7 +15975,7 @@
         <v>353557.17816115369</v>
       </c>
     </row>
-    <row r="70" spans="2:21">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>4</v>
       </c>
@@ -11877,7 +16031,7 @@
         <v>227110.42099971251</v>
       </c>
     </row>
-    <row r="71" spans="2:21">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>5</v>
       </c>
@@ -11933,7 +16087,7 @@
         <v>737072.98144462379</v>
       </c>
     </row>
-    <row r="72" spans="2:21">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>6</v>
       </c>
@@ -11989,7 +16143,7 @@
         <v>2791985.1889549047</v>
       </c>
     </row>
-    <row r="73" spans="2:21">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>7</v>
       </c>
@@ -12045,7 +16199,7 @@
         <v>2753314.9350032588</v>
       </c>
     </row>
-    <row r="74" spans="2:21">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>8</v>
       </c>
@@ -12101,7 +16255,7 @@
         <v>1099607.6340141615</v>
       </c>
     </row>
-    <row r="75" spans="2:21">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>9</v>
       </c>
@@ -12157,7 +16311,7 @@
         <v>15742111.636680795</v>
       </c>
     </row>
-    <row r="76" spans="2:21">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>10</v>
       </c>
@@ -12213,7 +16367,7 @@
         <v>4257341.4947987329</v>
       </c>
     </row>
-    <row r="77" spans="2:21">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>11</v>
       </c>
@@ -12269,7 +16423,7 @@
         <v>3148582.1823934237</v>
       </c>
     </row>
-    <row r="78" spans="2:21">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>12</v>
       </c>
@@ -12325,7 +16479,7 @@
         <v>1244675.8875959101</v>
       </c>
     </row>
-    <row r="79" spans="2:21">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>13</v>
       </c>
@@ -12392,13 +16546,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5D1303-60C5-7244-BACA-86A03DDD5F7C}">
   <dimension ref="A1:BM15"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BI1" sqref="BI1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -12595,7 +16752,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:65">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12792,7 +16949,7 @@
         <v>47689.771216094327</v>
       </c>
     </row>
-    <row r="3" spans="1:65">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12989,7 +17146,7 @@
         <v>134736.7161343258</v>
       </c>
     </row>
-    <row r="4" spans="1:65">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13186,7 +17343,7 @@
         <v>315266.36557262973</v>
       </c>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13383,7 +17540,7 @@
         <v>353557.17816115369</v>
       </c>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -13580,7 +17737,7 @@
         <v>227110.42099971251</v>
       </c>
     </row>
-    <row r="7" spans="1:65">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13777,7 +17934,7 @@
         <v>737072.98144462379</v>
       </c>
     </row>
-    <row r="8" spans="1:65">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13974,7 +18131,7 @@
         <v>2791985.1889549047</v>
       </c>
     </row>
-    <row r="9" spans="1:65">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -14171,7 +18328,7 @@
         <v>2753314.9350032588</v>
       </c>
     </row>
-    <row r="10" spans="1:65">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -14368,7 +18525,7 @@
         <v>1099607.6340141615</v>
       </c>
     </row>
-    <row r="11" spans="1:65">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -14565,7 +18722,7 @@
         <v>15742111.636680795</v>
       </c>
     </row>
-    <row r="12" spans="1:65">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -14762,7 +18919,7 @@
         <v>4257341.4947987329</v>
       </c>
     </row>
-    <row r="13" spans="1:65">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -14959,7 +19116,7 @@
         <v>3148582.1823934237</v>
       </c>
     </row>
-    <row r="14" spans="1:65">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -15156,7 +19313,7 @@
         <v>1244675.8875959101</v>
       </c>
     </row>
-    <row r="15" spans="1:65">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -15351,6 +19508,297 @@
       </c>
       <c r="BM15">
         <v>1304098.4918714282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01A94F1-D9C6-C64C-8F0B-7A99D8742B4F}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>762508.86891729571</v>
+      </c>
+      <c r="C2">
+        <v>779980.50750435109</v>
+      </c>
+      <c r="D2">
+        <v>34035.020559002376</v>
+      </c>
+      <c r="E2">
+        <v>39045.697140364689</v>
+      </c>
+      <c r="F2">
+        <v>4041368.9840378067</v>
+      </c>
+      <c r="G2">
+        <v>1194249.8251385868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2180562.4969209922</v>
+      </c>
+      <c r="C3">
+        <v>1992739.1239960659</v>
+      </c>
+      <c r="D3">
+        <v>70317.29300821104</v>
+      </c>
+      <c r="E3">
+        <v>81628.802083178467</v>
+      </c>
+      <c r="F3">
+        <v>6186586.0418759556</v>
+      </c>
+      <c r="G3">
+        <v>223575.52410011005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4361741.4230567012</v>
+      </c>
+      <c r="C4">
+        <v>1254038.3560275671</v>
+      </c>
+      <c r="D4">
+        <v>103929.06031437915</v>
+      </c>
+      <c r="E4">
+        <v>33543.572235667256</v>
+      </c>
+      <c r="F4">
+        <v>284161853.10548216</v>
+      </c>
+      <c r="G4">
+        <v>15764448.835951749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>7097172.598679509</v>
+      </c>
+      <c r="C5">
+        <v>19352.393016789374</v>
+      </c>
+      <c r="D5">
+        <v>121368.05177053963</v>
+      </c>
+      <c r="E5">
+        <v>1866.8576379740384</v>
+      </c>
+      <c r="F5">
+        <v>249608062.91645053</v>
+      </c>
+      <c r="G5">
+        <v>6697035.9310430596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>9037235.9701416772</v>
+      </c>
+      <c r="C6">
+        <v>7405.5339932533816</v>
+      </c>
+      <c r="D6">
+        <v>227146.56833205247</v>
+      </c>
+      <c r="E6">
+        <v>1456.9707792918111</v>
+      </c>
+      <c r="F6">
+        <v>207445178.42673662</v>
+      </c>
+      <c r="G6">
+        <v>30533918.165302269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>10988682.015352204</v>
+      </c>
+      <c r="C7">
+        <v>2992.0086206224428</v>
+      </c>
+      <c r="D7">
+        <v>218939.19163615195</v>
+      </c>
+      <c r="E7">
+        <v>1220.9918530592313</v>
+      </c>
+      <c r="F7">
+        <v>146457711.10709235</v>
+      </c>
+      <c r="G7">
+        <v>9666826.3585308883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>11965407.526725782</v>
+      </c>
+      <c r="C8">
+        <v>1969.1656116604354</v>
+      </c>
+      <c r="D8">
+        <v>396820.23255747964</v>
+      </c>
+      <c r="E8">
+        <v>558.88218830525886</v>
+      </c>
+      <c r="F8">
+        <v>115772609.73425201</v>
+      </c>
+      <c r="G8">
+        <v>16620441.14812113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>12702094.971556066</v>
+      </c>
+      <c r="C9">
+        <v>2888.7495397047246</v>
+      </c>
+      <c r="D9">
+        <v>804147.51251275069</v>
+      </c>
+      <c r="E9">
+        <v>1759.312643867436</v>
+      </c>
+      <c r="F9">
+        <v>34927482.339326382</v>
+      </c>
+      <c r="G9">
+        <v>26216861.288546935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>12205331.263812775</v>
+      </c>
+      <c r="C10">
+        <v>3656.0151093252593</v>
+      </c>
+      <c r="D10">
+        <v>579644.27457699343</v>
+      </c>
+      <c r="E10">
+        <v>898.71884091524555</v>
+      </c>
+      <c r="F10">
+        <v>148628211.89224848</v>
+      </c>
+      <c r="G10">
+        <v>10593096.025955858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>12860750.842148034</v>
+      </c>
+      <c r="C11">
+        <v>9509.2769767182835</v>
+      </c>
+      <c r="D11">
+        <v>504851.55917347514</v>
+      </c>
+      <c r="E11">
+        <v>647.34058083804496</v>
+      </c>
+      <c r="F11">
+        <v>273111141.87199837</v>
+      </c>
+      <c r="G11">
+        <v>7515390.8976071524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>10270341.261799943</v>
+      </c>
+      <c r="C12">
+        <v>22351.403300714195</v>
+      </c>
+      <c r="D12">
+        <v>551851.59193968179</v>
+      </c>
+      <c r="E12">
+        <v>1640.2490318924515</v>
+      </c>
+      <c r="F12">
+        <v>131168293.74801707</v>
+      </c>
+      <c r="G12">
+        <v>3104059.1521019698</v>
       </c>
     </row>
   </sheetData>

--- a/data/DMSP_dosage.xlsx
+++ b/data/DMSP_dosage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtalmy/Documents/code/metro_hastings/growth_curves/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF36AD9-3544-2546-BA25-44ECDBBBEFDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F62488-2BA2-CD44-B4B5-1B4F6FC9DA7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="1900" windowWidth="28800" windowHeight="15940" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="1900" windowWidth="28800" windowHeight="15940" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="379-D7 dynamics, Exp 1" sheetId="1" r:id="rId1"/>
@@ -5271,7 +5271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5250B3F-903C-9A45-8C77-FED8983B3E2D}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -5778,7 +5778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C489B84C-AF53-3F4F-BA4E-5234407B9D8B}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
@@ -7544,7 +7544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
